--- a/docs/PST1/PST1_12.11.2024_output.xlsx
+++ b/docs/PST1/PST1_12.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731601573.1909575</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731601574.8867576</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731601573.1909575.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731601574.8867576.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>136.66</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>136.58</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.07999999999998408</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731601588.5518255</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731601590.1704214</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731601588.5518255.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731601590.1704214.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>135.16</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>135.15</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.009999999999990905</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731601594.1291633</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731601594.1291633.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731601594.1291633.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>135.37</v>
       </c>
-      <c r="J5" t="n">
-        <v>135.37</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>135.34</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731601610.483822</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731601611.4937353</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731601610.483822.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731601611.4937353.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6991.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6993</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-1.5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -739,95 +779,107 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731601617.3705902</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731601617.3705902.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731601617.3705902.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>7009</v>
       </c>
-      <c r="J7" t="n">
-        <v>7009</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>7006.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731601619.4861302</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731601620.8519332</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731601619.4861302.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731601620.8519332.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>491.15</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>492.45</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-1.300000000000011</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -835,51 +887,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731601620.8669481</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731601623.0249472</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731601620.8669481.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731601623.0249472.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>492.45</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>491.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.9499999999999886</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -887,51 +945,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731601627.2957535</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731601627.784755</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731601627.2957535.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731601627.784755.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>490.15</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>490.55</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.4000000000000341</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -939,51 +1003,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731601628.9917026</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731601633.717137</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731601628.9917026.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731601633.717137.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>490.2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>486.85</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-3.349999999999966</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.6799999999999999</v>
       </c>
     </row>
@@ -991,51 +1061,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731601633.7320957</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731601636.4378996</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731601633.7320957.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731601636.4378996.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>486.85</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>486.45</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.4000000000000341</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1043,51 +1119,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731601637.5656776</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731601638.211509</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731601637.5656776.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731601638.211509.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>485.95</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>484.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>1.449999999999989</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1095,95 +1177,107 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731601639.6459405</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731601639.6459405.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731601639.6459405.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>484.25</v>
       </c>
-      <c r="J14" t="n">
-        <v>484.25</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>484.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731601646.837673</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731601648.758653</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731601646.837673.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731601648.758653.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>949.4</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>946.2</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-3.199999999999932</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -1191,51 +1285,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731601655.8315032</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731601655.960988</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731601655.8315032.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731601655.960988.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>935.2</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>935</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1243,51 +1343,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731601660.5295453</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731601660.5816553</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731601660.5295453.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731601660.5816553.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>934.4</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>934.2</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.1999999999999318</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1295,51 +1401,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731601660.6337018</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731601663.805606</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731601660.6337018.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731601663.805606.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>934.2</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>936</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-1.799999999999955</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -1347,51 +1459,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731601664.5126197</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731601666.995681</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601664.5126197.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601666.995681.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>37.95</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>38.06</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -1399,51 +1517,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731601669.903221</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731601671.2739527</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601669.903221.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601671.2739527.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>37.935</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>37.875</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1451,51 +1575,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731601675.9941652</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731601677.6010613</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601675.9941652.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601677.6010613.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>38.13</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>38.145</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.01500000000000057</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1503,51 +1633,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731601677.616994</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731601678.934026</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601677.616994.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601678.934026.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>38.145</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>38.18</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.03499999999999659</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1555,51 +1691,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731601680.3361983</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731601681.1929562</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601680.3361983.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601681.1929562.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>38.15</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>38.19</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1607,51 +1749,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731601681.4336329</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731601684.424092</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601681.4336329.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601684.424092.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>38.17</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>38.04</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.1300000000000026</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -1659,95 +1807,107 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731601687.1535625</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731601687.1535625.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731601687.1535625.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>38.07</v>
       </c>
-      <c r="J25" t="n">
-        <v>38.07</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>38.065</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.005000000000002558</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731601692.3166988</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731601694.3299968</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731601692.3166988.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731601694.3299968.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1244</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1243.8</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1755,51 +1915,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731601696.2545903</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731601704.0626435</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731601696.2545903.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731601704.0626435.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1242</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1237.6</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-4.400000000000091</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -1807,51 +1973,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731601704.0785735</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731601706.0318606</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731601704.0785735.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731601706.0318606.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1237.6</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1233.4</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>4.199999999999818</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -1859,51 +2031,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731601712.464384</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731601714.5726185</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731601712.464384.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731601714.5726185.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>81.33</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>81.06</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.269999999999996</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -1911,51 +2089,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731601714.5885487</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731601715.5215447</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731601714.5885487.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731601715.5215447.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>81.06</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>81.09999999999999</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.03999999999999204</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1963,51 +2147,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731601718.1404533</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731601722.6911066</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731601718.1404533.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731601722.6911066.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>80.84999999999999</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>80.84999999999999</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2015,51 +2205,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731601722.706056</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731601723.727601</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731601722.706056.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731601723.727601.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>80.84999999999999</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>80.77</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2067,51 +2263,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731601726.1846325</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731601728.46476</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731601726.1846325.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731601728.46476.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>80.39</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>80.44</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2119,51 +2321,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731601730.13168</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731601732.273986</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731601730.13168.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731601732.273986.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>80.56</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>80.81</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -2171,51 +2379,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731601736.4415388</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731601741.8705335</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731601736.4415388.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731601741.8705335.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>14.477</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>14.436</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.04100000000000037</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -2223,51 +2437,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731601741.8855255</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731601743.5746186</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731601741.8855255.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731601743.5746186.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>14.436</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>14.519</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.08300000000000018</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -2275,51 +2495,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731601743.5901122</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731601743.9078526</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731601743.5901122.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731601743.9078526.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>14.519</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>14.45</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.06900000000000084</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -2327,51 +2553,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731601743.9238365</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731601749.9284954</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731601743.9238365.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731601749.9284954.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>14.45</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>14.381</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.06899999999999906</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.48</v>
       </c>
     </row>
@@ -2379,51 +2611,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731601749.9464445</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731601751.4404037</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731601749.9464445.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731601751.4404037.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>14.381</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>14.357</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.02400000000000091</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2431,51 +2669,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731601752.7968884</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731601752.889639</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731601752.7968884.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731601752.889639.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>14.355</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>14.38</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.02500000000000036</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -2483,51 +2727,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731601753.2372684</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731601754.6920028</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731601753.2372684.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731601754.6920028.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>14.392</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>14.347</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.04499999999999993</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2535,95 +2785,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731601754.9314516</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731601754.9314516.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731601754.9314516.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>14.377</v>
       </c>
-      <c r="J42" t="n">
-        <v>14.377</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>14.399</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.02199999999999847</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731601757.0353193</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731601765.1477807</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731601757.0353193.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731601765.1477807.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>106.85</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>106.68</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.1699999999999875</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2631,51 +2893,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731601765.1637378</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731601770.9844894</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731601765.1637378.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731601770.9844894.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>106.68</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>105.71</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.9700000000000131</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.91</v>
       </c>
     </row>
@@ -2683,51 +2951,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731601771.0004714</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731601771.655351</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731601771.0004714.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731601771.655351.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>105.71</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>105.87</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.1600000000000108</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -2735,51 +3009,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731601771.8196461</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731601774.4692066</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731601771.8196461.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731601774.4692066.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>105.91</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>106.09</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.1800000000000068</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -2787,95 +3067,107 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731601776.3125088</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731601776.3125088.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731601776.3125088.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>106.17</v>
       </c>
-      <c r="J47" t="n">
-        <v>106.17</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>106.1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.07000000000000739</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731601787.050696</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731601789.0545394</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731601787.050696.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731601789.0545394.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>351</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>349.03</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>1.970000000000027</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -2883,51 +3175,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731601789.070567</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731601796.5744715</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731601789.070567.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731601796.5744715.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>349.03</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>346.66</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-2.369999999999948</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.6799999999999999</v>
       </c>
     </row>
@@ -2935,95 +3233,107 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731601796.5894036</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731601796.5894036.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731601796.5894036.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>346.66</v>
       </c>
-      <c r="J50" t="n">
-        <v>346.66</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>347.25</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.589999999999975</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731601808.2134118</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731601820.891607</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731601808.2134118.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731601820.891607.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>2782.25</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>2777.7</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-4.550000000000182</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3031,51 +3341,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731601820.9075668</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731601821.9196362</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731601820.9075668.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731601821.9196362.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>2777.7</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>2783</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-5.300000000000182</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -3083,51 +3399,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731601822.3851113</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731601823.2044108</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/TATN1731601822.3851113.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/TATN1731601823.2044108.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>596.5</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>597.9</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>1.399999999999977</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3135,51 +3457,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731601823.826045</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731601827.7054412</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/TATN1731601823.826045.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/TATN1731601827.7054412.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>597.8</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>593.8</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-4</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.67</v>
       </c>
     </row>
@@ -3187,51 +3515,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731601830.9974418</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731601831.9726644</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/TATN1731601830.9974418.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/TATN1731601831.9726644.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>592.7</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>593</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.2999999999999545</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -3239,44 +3573,50 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731601844.0162315</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731601844.0162315.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731601844.0162315.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>590</v>
       </c>
-      <c r="J56" t="n">
-        <v>590</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>588.8</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-1.200000000000045</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>
@@ -3337,19 +3677,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1680000000000028</v>
+        <v>0.1460000000000043</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02100000000000035</v>
+        <v>0.01825000000000054</v>
       </c>
       <c r="E2" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="F2" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="3">
@@ -3359,16 +3699,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1200000000000045</v>
+        <v>-0.1250000000000071</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01714285714285779</v>
+        <v>-0.01785714285714387</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.32</v>
+        <v>-0.33</v>
       </c>
       <c r="F3" t="n">
         <v>-0.05</v>
@@ -3381,16 +3721,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3.349999999999909</v>
+        <v>-3.599999999999909</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4785714285714156</v>
+        <v>-0.5142857142857012</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6699999999999999</v>
+        <v>-0.72</v>
       </c>
       <c r="F4" t="n">
         <v>-0.1</v>
@@ -3425,19 +3765,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.140000000000043</v>
+        <v>-1.070000000000036</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2280000000000086</v>
+        <v>-0.2140000000000072</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.07</v>
+        <v>-1</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="7">
@@ -3469,19 +3809,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.899999999999977</v>
+        <v>-4.100000000000023</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7249999999999943</v>
+        <v>-1.025000000000006</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.49</v>
+        <v>-0.6900000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.12</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="9">
@@ -3491,19 +3831,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.3999999999999204</v>
+        <v>-0.9899999999998954</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1333333333333068</v>
+        <v>-0.3299999999999652</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.12</v>
+        <v>-0.29</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.04</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="10">
@@ -3535,19 +3875,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08999999999997499</v>
+        <v>0.1199999999999761</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02999999999999166</v>
+        <v>0.03999999999999204</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="12">
@@ -3557,19 +3897,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13">
